--- a/public/excel/product/Giá thép U.xlsx
+++ b/public/excel/product/Giá thép U.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="59">
   <si>
     <t xml:space="preserve">Tên</t>
   </si>
@@ -31,7 +31,16 @@
     <t xml:space="preserve">Trọng lượng</t>
   </si>
   <si>
-    <t xml:space="preserve">Giá sản phẩm</t>
+    <t xml:space="preserve">Giá chưa VAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng giá chưa VAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá có VAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng giá có VAT</t>
   </si>
   <si>
     <t xml:space="preserve">Danh mục</t>
@@ -58,6 +67,12 @@
     <t xml:space="preserve">Thép hình U 140 x 58 x 4.9 x 6m</t>
   </si>
   <si>
+    <t xml:space="preserve">1.073.421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.180.763</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình U 120 x 52 x 4.8 x 6m</t>
   </si>
   <si>
@@ -67,43 +82,121 @@
     <t xml:space="preserve">Thép hình U 150 x 75 x 6.5 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">3.694.070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.063.477</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình U 160 x 64 x 5 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">2.768.166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.044.983</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình U 180 x 74 x 5.1 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">3.511.598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.862.758</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình U 200 x 76 x 5.2 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">3.713.414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.084.756</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình U 200 x 78 x 9 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">5.286.737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.815.410</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình U 200 x 80 x 7.5 x 11 x 12m - HQ</t>
   </si>
   <si>
     <t xml:space="preserve">Thép hình U 200 x 90 x 8 x 13.5 x 12m - Nhật</t>
   </si>
   <si>
+    <t xml:space="preserve">6.511.712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.162.884</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình U 250 x 78 x 7.0 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">5.549.940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.104.934</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình U 250 x 90 x 9 x 13 x 12m - HQ</t>
   </si>
   <si>
+    <t xml:space="preserve">7.435.817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.179.398</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình U 300 x 85 x 7.0 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">7.376.652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.114.317</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình U 300 x 87 x 9.5 x 12m - HQ</t>
   </si>
   <si>
+    <t xml:space="preserve">8.424.394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.266.833</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình U 300 x 90 x 9 x 13 x 12m - HQ</t>
   </si>
   <si>
+    <t xml:space="preserve">8.187.995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.006.794</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép U 380 x 100 x 10.5 x 16 x 12m - HQ</t>
   </si>
   <si>
+    <t xml:space="preserve">11.712.486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.883.735</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép U 400 x 100 x 10.5 x 12m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.615.144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.876.658</t>
   </si>
 </sst>
 </file>
@@ -113,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -141,11 +234,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -231,7 +319,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -240,35 +328,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -349,10 +433,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -360,8 +444,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="13.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1019" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -374,7 +460,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -383,405 +469,594 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="C2" s="4" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>14.091</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>596.049</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>655.654</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>14.091</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="n">
+      <c r="C3" s="4" t="n">
+        <v>51.54</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>14.545</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>749.649</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>824.614</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="n">
-        <v>51.54</v>
-      </c>
-      <c r="D3" s="5" t="n">
+      <c r="C4" s="4" t="n">
+        <v>56.16</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>14.545</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="n">
+      <c r="E4" s="4" t="n">
+        <v>816.847</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>898.532</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="n">
-        <v>56.16</v>
-      </c>
-      <c r="D4" s="5" t="n">
+      <c r="C5" s="4" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="D5" s="4" t="n">
         <v>14.545</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="n">
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <v>73.8</v>
-      </c>
-      <c r="D5" s="5" t="n">
+      <c r="C6" s="4" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <v>14.545</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="n">
+      <c r="E6" s="4" t="n">
+        <v>907.608</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>998.369</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="n">
-        <v>62.4</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>14.545</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="4" t="n">
         <v>41.52</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="4" t="n">
         <v>15.909</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>8</v>
+      <c r="E7" s="4" t="n">
+        <v>660.542</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>726.596</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="n">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="n">
         <v>232.2</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="4" t="n">
         <v>15.909</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>8</v>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="n">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="n">
         <v>174</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="4" t="n">
         <v>15.909</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>8</v>
+      <c r="E9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="n">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="n">
         <v>208.8</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="4" t="n">
         <v>16.818</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>8</v>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="n">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="n">
         <v>220.8</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="4" t="n">
         <v>16.818</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>8</v>
+      <c r="E11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5" t="n">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="n">
         <v>295.2</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="4" t="n">
         <v>17.909</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>8</v>
+      <c r="E12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5" t="n">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="n">
         <v>295.2</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="4" t="n">
         <v>17.909</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>8</v>
+      <c r="E13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5" t="n">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="n">
         <v>363.6</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="4" t="n">
         <v>17.909</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>8</v>
+      <c r="E14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5" t="n">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="n">
         <v>330</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="4" t="n">
         <v>16.818</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>8</v>
+      <c r="E15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5" t="n">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="n">
         <v>415.2</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="4" t="n">
         <v>17.909</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>8</v>
+      <c r="E16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C17" s="5" t="n">
+      <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="n">
         <v>414</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="4" t="n">
         <v>17.818</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>8</v>
+      <c r="E17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C18" s="5" t="n">
+      <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="n">
         <v>470.4</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="4" t="n">
         <v>17.909</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>8</v>
+      <c r="E18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C19" s="5" t="n">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="n">
         <v>457.2</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="4" t="n">
         <v>17.909</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>8</v>
+      <c r="E19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="C20" s="9" t="n">
+      <c r="A20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="C20" s="8" t="n">
         <v>654</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="8" t="n">
         <v>17.909</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>8</v>
+      <c r="E20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="8" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C21" s="5" t="n">
+      <c r="A21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="n">
         <v>708</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="4" t="n">
         <v>17.818</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>8</v>
+      <c r="E21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
